--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H2">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I2">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J2">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>50.92335598682067</v>
+        <v>124.6153424020373</v>
       </c>
       <c r="R2">
-        <v>50.92335598682067</v>
+        <v>1121.538081618336</v>
       </c>
       <c r="S2">
-        <v>0.01861447926644734</v>
+        <v>0.03778381240364558</v>
       </c>
       <c r="T2">
-        <v>0.01861447926644734</v>
+        <v>0.03778381240364558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H3">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I3">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J3">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>19.82202058708247</v>
+        <v>44.65901275517867</v>
       </c>
       <c r="R3">
-        <v>19.82202058708247</v>
+        <v>401.931114796608</v>
       </c>
       <c r="S3">
-        <v>0.007245724168941902</v>
+        <v>0.01354077056282356</v>
       </c>
       <c r="T3">
-        <v>0.007245724168941902</v>
+        <v>0.01354077056282356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H4">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I4">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J4">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>27.13651466313039</v>
+        <v>64.50431372536532</v>
       </c>
       <c r="R4">
-        <v>27.13651466313039</v>
+        <v>580.5388235282879</v>
       </c>
       <c r="S4">
-        <v>0.009919457973100133</v>
+        <v>0.01955793598160718</v>
       </c>
       <c r="T4">
-        <v>0.009919457973100133</v>
+        <v>0.01955793598160718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H5">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I5">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J5">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>36.39504573070462</v>
+        <v>81.71770371171201</v>
       </c>
       <c r="R5">
-        <v>36.39504573070462</v>
+        <v>735.459333405408</v>
       </c>
       <c r="S5">
-        <v>0.01330381336868173</v>
+        <v>0.02477709668476214</v>
       </c>
       <c r="T5">
-        <v>0.01330381336868173</v>
+        <v>0.02477709668476214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H6">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I6">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J6">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>10.69041355966335</v>
+        <v>25.08343362114134</v>
       </c>
       <c r="R6">
-        <v>10.69041355966335</v>
+        <v>225.750902590272</v>
       </c>
       <c r="S6">
-        <v>0.00390776447663038</v>
+        <v>0.007605385758383198</v>
       </c>
       <c r="T6">
-        <v>0.00390776447663038</v>
+        <v>0.007605385758383197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.571357919321448</v>
+        <v>1.279157333333333</v>
       </c>
       <c r="H7">
-        <v>0.571357919321448</v>
+        <v>3.837472</v>
       </c>
       <c r="I7">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="J7">
-        <v>0.05627439032427335</v>
+        <v>0.1094775343043046</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>8.981667890194979</v>
+        <v>20.48964535069155</v>
       </c>
       <c r="R7">
-        <v>8.981667890194979</v>
+        <v>184.406808156224</v>
       </c>
       <c r="S7">
-        <v>0.003283151070471867</v>
+        <v>0.006212532913082953</v>
       </c>
       <c r="T7">
-        <v>0.003283151070471867</v>
+        <v>0.006212532913082953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H8">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I8">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J8">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>245.2619293969141</v>
+        <v>305.1548540112377</v>
       </c>
       <c r="R8">
-        <v>245.2619293969141</v>
+        <v>2746.393686101139</v>
       </c>
       <c r="S8">
-        <v>0.08965283240148769</v>
+        <v>0.09252403063520337</v>
       </c>
       <c r="T8">
-        <v>0.08965283240148769</v>
+        <v>0.09252403063520336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H9">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I9">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J9">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>95.46870820908605</v>
+        <v>109.3598449027713</v>
       </c>
       <c r="R9">
-        <v>95.46870820908605</v>
+        <v>984.2386041249421</v>
       </c>
       <c r="S9">
-        <v>0.03489754858286381</v>
+        <v>0.03315829162485642</v>
       </c>
       <c r="T9">
-        <v>0.03489754858286381</v>
+        <v>0.03315829162485641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H10">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I10">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J10">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>130.6974729848817</v>
+        <v>157.9565088739596</v>
       </c>
       <c r="R10">
-        <v>130.6974729848817</v>
+        <v>1421.608579865637</v>
       </c>
       <c r="S10">
-        <v>0.0477750406254408</v>
+        <v>0.04789297195824979</v>
       </c>
       <c r="T10">
-        <v>0.0477750406254408</v>
+        <v>0.04789297195824979</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H11">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I11">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J11">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>175.2892943409254</v>
+        <v>200.108216738113</v>
       </c>
       <c r="R11">
-        <v>175.2892943409254</v>
+        <v>1800.973950643017</v>
       </c>
       <c r="S11">
-        <v>0.06407509622861085</v>
+        <v>0.06067351881334077</v>
       </c>
       <c r="T11">
-        <v>0.06407509622861085</v>
+        <v>0.06067351881334076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H12">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I12">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J12">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>51.48819053427162</v>
+        <v>61.42366884540867</v>
       </c>
       <c r="R12">
-        <v>51.48819053427162</v>
+        <v>552.813019608678</v>
       </c>
       <c r="S12">
-        <v>0.01882094839576435</v>
+        <v>0.01862387356214196</v>
       </c>
       <c r="T12">
-        <v>0.01882094839576435</v>
+        <v>0.01862387356214196</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.75182856576169</v>
+        <v>3.132367666666667</v>
       </c>
       <c r="H13">
-        <v>2.75182856576169</v>
+        <v>9.397103</v>
       </c>
       <c r="I13">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="J13">
-        <v>0.2710340919034944</v>
+        <v>0.2680857778359253</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>43.2583664855405</v>
+        <v>50.17451796232511</v>
       </c>
       <c r="R13">
-        <v>43.2583664855405</v>
+        <v>451.570661660926</v>
       </c>
       <c r="S13">
-        <v>0.01581262566932693</v>
+        <v>0.01521309124213299</v>
       </c>
       <c r="T13">
-        <v>0.01581262566932693</v>
+        <v>0.01521309124213299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H14">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I14">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J14">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>101.163481135194</v>
+        <v>116.902383901935</v>
       </c>
       <c r="R14">
-        <v>101.163481135194</v>
+        <v>1052.121455117415</v>
       </c>
       <c r="S14">
-        <v>0.03697921092631967</v>
+        <v>0.03544521611664292</v>
       </c>
       <c r="T14">
-        <v>0.03697921092631967</v>
+        <v>0.03544521611664291</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H15">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I15">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J15">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>39.37809217133532</v>
+        <v>41.89488190743</v>
       </c>
       <c r="R15">
-        <v>39.37809217133532</v>
+        <v>377.05393716687</v>
       </c>
       <c r="S15">
-        <v>0.0143942335706484</v>
+        <v>0.01270267631698407</v>
       </c>
       <c r="T15">
-        <v>0.0143942335706484</v>
+        <v>0.01270267631698407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H16">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I16">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J16">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>53.90894288092462</v>
+        <v>60.51187519210499</v>
       </c>
       <c r="R16">
-        <v>53.90894288092462</v>
+        <v>544.6068767289449</v>
       </c>
       <c r="S16">
-        <v>0.01970582810356754</v>
+        <v>0.01834741450274208</v>
       </c>
       <c r="T16">
-        <v>0.01970582810356754</v>
+        <v>0.01834741450274208</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H17">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I17">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J17">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>72.30178472812256</v>
+        <v>76.659857339805</v>
       </c>
       <c r="R17">
-        <v>72.30178472812256</v>
+        <v>689.9387160582449</v>
       </c>
       <c r="S17">
-        <v>0.02642913151869045</v>
+        <v>0.02324353978238614</v>
       </c>
       <c r="T17">
-        <v>0.02642913151869045</v>
+        <v>0.02324353978238613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H18">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I18">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J18">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>21.2373954841138</v>
+        <v>23.53091625987</v>
       </c>
       <c r="R18">
-        <v>21.2373954841138</v>
+        <v>211.77824633883</v>
       </c>
       <c r="S18">
-        <v>0.007763099078047629</v>
+        <v>0.007134657005398446</v>
       </c>
       <c r="T18">
-        <v>0.007763099078047629</v>
+        <v>0.007134657005398444</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.13505001727848</v>
+        <v>1.199985</v>
       </c>
       <c r="H19">
-        <v>1.13505001727848</v>
+        <v>3.599955</v>
       </c>
       <c r="I19">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="J19">
-        <v>0.1117937558050482</v>
+        <v>0.1027015173026547</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>17.8428301231261</v>
+        <v>19.22145652879</v>
       </c>
       <c r="R19">
-        <v>17.8428301231261</v>
+        <v>172.99310875911</v>
       </c>
       <c r="S19">
-        <v>0.006522252607774547</v>
+        <v>0.00582801357850104</v>
       </c>
       <c r="T19">
-        <v>0.006522252607774547</v>
+        <v>0.005828013578501039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H20">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I20">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J20">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>74.04430068933921</v>
+        <v>82.34788039113835</v>
       </c>
       <c r="R20">
-        <v>74.04430068933921</v>
+        <v>741.1309235202451</v>
       </c>
       <c r="S20">
-        <v>0.0270660892879293</v>
+        <v>0.02496816848200344</v>
       </c>
       <c r="T20">
-        <v>0.0270660892879293</v>
+        <v>0.02496816848200344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H21">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I21">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J21">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>28.82189565432529</v>
+        <v>29.51141464495667</v>
       </c>
       <c r="R21">
-        <v>28.82189565432529</v>
+        <v>265.6027318046101</v>
       </c>
       <c r="S21">
-        <v>0.01053553067507958</v>
+        <v>0.008947965260279312</v>
       </c>
       <c r="T21">
-        <v>0.01053553067507958</v>
+        <v>0.008947965260279312</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H22">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I22">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J22">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>39.45742012560034</v>
+        <v>42.62551792564833</v>
       </c>
       <c r="R22">
-        <v>39.45742012560034</v>
+        <v>383.629661330835</v>
       </c>
       <c r="S22">
-        <v>0.01442323104206993</v>
+        <v>0.012924207740929</v>
       </c>
       <c r="T22">
-        <v>0.01442323104206993</v>
+        <v>0.012924207740929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H23">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I23">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J23">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>52.91964084975053</v>
+        <v>54.00041087541501</v>
       </c>
       <c r="R23">
-        <v>52.91964084975053</v>
+        <v>486.0036978787351</v>
       </c>
       <c r="S23">
-        <v>0.01934419949935084</v>
+        <v>0.01637311550012726</v>
       </c>
       <c r="T23">
-        <v>0.01934419949935084</v>
+        <v>0.01637311550012726</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H24">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I24">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J24">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>15.54422682413084</v>
+        <v>16.57554801694334</v>
       </c>
       <c r="R24">
-        <v>15.54422682413084</v>
+        <v>149.17993215249</v>
       </c>
       <c r="S24">
-        <v>0.005682023156636091</v>
+        <v>0.005025764762891407</v>
       </c>
       <c r="T24">
-        <v>0.005682023156636091</v>
+        <v>0.005025764762891406</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.830773949588506</v>
+        <v>0.8452883333333334</v>
       </c>
       <c r="H25">
-        <v>0.830773949588506</v>
+        <v>2.535865</v>
       </c>
       <c r="I25">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="J25">
-        <v>0.08182488756943149</v>
+        <v>0.07234456630005</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N25">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q25">
-        <v>13.05965219820739</v>
+        <v>13.53989670992556</v>
       </c>
       <c r="R25">
-        <v>13.05965219820739</v>
+        <v>121.85907038933</v>
       </c>
       <c r="S25">
-        <v>0.004773813908365751</v>
+        <v>0.004105344553819573</v>
       </c>
       <c r="T25">
-        <v>0.004773813908365751</v>
+        <v>0.004105344553819573</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H26">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I26">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J26">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N26">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q26">
-        <v>63.28699276434417</v>
+        <v>76.74675738128366</v>
       </c>
       <c r="R26">
-        <v>63.28699276434417</v>
+        <v>690.720816431553</v>
       </c>
       <c r="S26">
-        <v>0.02313387230316431</v>
+        <v>0.0232698881822044</v>
       </c>
       <c r="T26">
-        <v>0.02313387230316431</v>
+        <v>0.0232698881822044</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H27">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I27">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J27">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N27">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q27">
-        <v>24.63459151816382</v>
+        <v>27.50411266175933</v>
       </c>
       <c r="R27">
-        <v>24.63459151816382</v>
+        <v>247.537013955834</v>
       </c>
       <c r="S27">
-        <v>0.009004907162264373</v>
+        <v>0.008339344201999783</v>
       </c>
       <c r="T27">
-        <v>0.009004907162264373</v>
+        <v>0.008339344201999783</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H28">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I28">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J28">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N28">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q28">
-        <v>33.72496517274951</v>
+        <v>39.72622327317766</v>
       </c>
       <c r="R28">
-        <v>33.72496517274951</v>
+        <v>357.536009458599</v>
       </c>
       <c r="S28">
-        <v>0.0123277944433253</v>
+        <v>0.01204513135161553</v>
       </c>
       <c r="T28">
-        <v>0.0123277944433253</v>
+        <v>0.01204513135161553</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H29">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I29">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J29">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N29">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q29">
-        <v>45.23136684890125</v>
+        <v>50.327420842651</v>
       </c>
       <c r="R29">
-        <v>45.23136684890125</v>
+        <v>452.946787583859</v>
       </c>
       <c r="S29">
-        <v>0.01653383450650524</v>
+        <v>0.01525945193604796</v>
       </c>
       <c r="T29">
-        <v>0.01653383450650524</v>
+        <v>0.01525945193604796</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H30">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I30">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J30">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N30">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q30">
-        <v>13.28592965815844</v>
+        <v>15.44811543510067</v>
       </c>
       <c r="R30">
-        <v>13.28592965815844</v>
+        <v>139.033038915906</v>
       </c>
       <c r="S30">
-        <v>0.004856527174314156</v>
+        <v>0.00468392321795011</v>
       </c>
       <c r="T30">
-        <v>0.004856527174314156</v>
+        <v>0.004683923217950109</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.710077405646744</v>
+        <v>0.7877936666666666</v>
       </c>
       <c r="H31">
-        <v>0.710077405646744</v>
+        <v>2.363381</v>
       </c>
       <c r="I31">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="J31">
-        <v>0.06993720001862981</v>
+        <v>0.06742384687149294</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N31">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q31">
-        <v>11.16231913163036</v>
+        <v>12.61894250135578</v>
       </c>
       <c r="R31">
-        <v>11.16231913163036</v>
+        <v>113.570482512202</v>
       </c>
       <c r="S31">
-        <v>0.004080264429056424</v>
+        <v>0.00382610798167515</v>
       </c>
       <c r="T31">
-        <v>0.004080264429056424</v>
+        <v>0.00382610798167515</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H32">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I32">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J32">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N32">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q32">
-        <v>370.2316715162927</v>
+        <v>432.5059737039874</v>
       </c>
       <c r="R32">
-        <v>370.2316715162927</v>
+        <v>3892.553763335886</v>
       </c>
       <c r="S32">
-        <v>0.1353341632669651</v>
+        <v>0.1311373403859488</v>
       </c>
       <c r="T32">
-        <v>0.1353341632669651</v>
+        <v>0.1311373403859488</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H33">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I33">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J33">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N33">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q33">
-        <v>144.1134362135368</v>
+        <v>154.9992916122787</v>
       </c>
       <c r="R33">
-        <v>144.1134362135368</v>
+        <v>1394.993624510508</v>
       </c>
       <c r="S33">
-        <v>0.05267910015804214</v>
+        <v>0.04699633322903382</v>
       </c>
       <c r="T33">
-        <v>0.05267910015804214</v>
+        <v>0.04699633322903381</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H34">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I34">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J34">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N34">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q34">
-        <v>197.2925190841179</v>
+        <v>223.8769358422153</v>
       </c>
       <c r="R34">
-        <v>197.2925190841179</v>
+        <v>2014.892422579938</v>
       </c>
       <c r="S34">
-        <v>0.07211813586808669</v>
+        <v>0.06788027848188111</v>
       </c>
       <c r="T34">
-        <v>0.07211813586808669</v>
+        <v>0.06788027848188111</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H35">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I35">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J35">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N35">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q35">
-        <v>264.6054713926946</v>
+        <v>283.6199325975621</v>
       </c>
       <c r="R35">
-        <v>264.6054713926946</v>
+        <v>2552.579393378058</v>
       </c>
       <c r="S35">
-        <v>0.09672365392223149</v>
+        <v>0.08599456632416788</v>
       </c>
       <c r="T35">
-        <v>0.09672365392223149</v>
+        <v>0.08599456632416787</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H36">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I36">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J36">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N36">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q36">
-        <v>77.72326871816816</v>
+        <v>87.05777854504136</v>
       </c>
       <c r="R36">
-        <v>77.72326871816816</v>
+        <v>783.5200069053722</v>
       </c>
       <c r="S36">
-        <v>0.02841089606209954</v>
+        <v>0.02639622625448234</v>
       </c>
       <c r="T36">
-        <v>0.02841089606209954</v>
+        <v>0.02639622625448233</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.15398383325713</v>
+        <v>4.439607333333334</v>
       </c>
       <c r="H37">
-        <v>4.15398383325713</v>
+        <v>13.318822</v>
       </c>
       <c r="I37">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="J37">
-        <v>0.4091356743791227</v>
+        <v>0.3799667573855724</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N37">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q37">
-        <v>65.30005439648777</v>
+        <v>71.11398839365823</v>
       </c>
       <c r="R37">
-        <v>65.30005439648777</v>
+        <v>640.0258955429241</v>
       </c>
       <c r="S37">
-        <v>0.02386972510169777</v>
+        <v>0.02156201271005843</v>
       </c>
       <c r="T37">
-        <v>0.02386972510169777</v>
+        <v>0.02156201271005843</v>
       </c>
     </row>
   </sheetData>
